--- a/database/classified_reaction_types/acid_alcohol/acid_alcohol_train.xlsx
+++ b/database/classified_reaction_types/acid_alcohol/acid_alcohol_train.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Reactants</t>
   </si>
@@ -187,10 +187,40 @@
     <t>Cc1ccc(CO)c(C)c1</t>
   </si>
   <si>
-    <t>Cc1cccc(C(=O)O)c1O</t>
-  </si>
-  <si>
-    <t>Cc1cccc(CO)c1O</t>
+    <t>Nc1cc(CCC(=O)O)ccn1</t>
+  </si>
+  <si>
+    <t>Nc1cc(CCCO)ccn1</t>
+  </si>
+  <si>
+    <t>COc1ncccc1CC(=O)O</t>
+  </si>
+  <si>
+    <t>COc1ncccc1CCO</t>
+  </si>
+  <si>
+    <t>CSc1cccc(C(=O)O)c1</t>
+  </si>
+  <si>
+    <t>CSc1cccc(CO)c1</t>
+  </si>
+  <si>
+    <t>CC1(C(=O)O)CCCCC1</t>
+  </si>
+  <si>
+    <t>CC1(CO)CCCCC1</t>
+  </si>
+  <si>
+    <t>Cc1c(O)cccc1C(=O)O</t>
+  </si>
+  <si>
+    <t>Cc1c(O)cccc1CO</t>
+  </si>
+  <si>
+    <t>O=C(O)C1CCCCCC1</t>
+  </si>
+  <si>
+    <t>OCC1CCCCCC1</t>
   </si>
 </sst>
 </file>
@@ -518,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -531,7 +561,7 @@
     <col min="4" max="5" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,21 +569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -569,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -577,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -593,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -601,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -609,7 +633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -617,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -625,7 +649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -633,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -641,7 +665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -649,7 +673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -657,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -674,103 +698,139 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/database/classified_reaction_types/acid_alcohol/acid_alcohol_train.xlsx
+++ b/database/classified_reaction_types/acid_alcohol/acid_alcohol_train.xlsx
@@ -33,194 +33,193 @@
     <t>CCOc1cccnc1CO</t>
   </si>
   <si>
-    <t>O=C(O)c1cccnc1O</t>
-  </si>
-  <si>
     <t>OCc1cccnc1O</t>
   </si>
   <si>
-    <t>O=C(O)CC1CCOCC1</t>
-  </si>
-  <si>
     <t>OCCC1CCOCC1</t>
   </si>
   <si>
-    <t>O=C(O)c1nccnc1O</t>
-  </si>
-  <si>
     <t>OCc1nccnc1O</t>
   </si>
   <si>
-    <t>Nc1ccc(C(=O)O)nn1</t>
-  </si>
-  <si>
-    <t>Nc1ccc(CO)nn1</t>
-  </si>
-  <si>
-    <t>Cc1nsc(C)c1C(=O)O</t>
-  </si>
-  <si>
-    <t>Cc1nsc(C)c1CO</t>
-  </si>
-  <si>
     <t>CCCCCCCCCCCC(=O)O</t>
   </si>
   <si>
     <t>CCCCCCCCCCCCO</t>
   </si>
   <si>
-    <t>Cn1cccc1CC(=O)O</t>
-  </si>
-  <si>
-    <t>Cn1cccc1CCO</t>
-  </si>
-  <si>
-    <t>CC(=O)OCCCCOC(C)=O</t>
-  </si>
-  <si>
-    <t>CC(=O)OCCCCO</t>
-  </si>
-  <si>
-    <t>CC(=O)OCCCC=O</t>
-  </si>
-  <si>
-    <t>Nc1ccc(C=CC(=O)O)cc1</t>
-  </si>
-  <si>
-    <t>Nc1ccc(C=CCO)cc1</t>
-  </si>
-  <si>
-    <t>COc1cccc(C(=O)O)c1</t>
-  </si>
-  <si>
-    <t>COc1cccc(CO)c1</t>
-  </si>
-  <si>
-    <t>CC(Oc1ccccc1)C(=O)O</t>
-  </si>
-  <si>
-    <t>CC(CO)Oc1ccccc1</t>
-  </si>
-  <si>
-    <t>COc1ccc(CC(=O)O)cc1</t>
-  </si>
-  <si>
-    <t>COc1ccc(CCO)cc1</t>
-  </si>
-  <si>
-    <t>Cc1c(C(=O)O)ncn1C</t>
-  </si>
-  <si>
-    <t>Cc1c(CO)ncn1C</t>
-  </si>
-  <si>
     <t>CCCC/C=C/C=C/C(=O)O</t>
   </si>
   <si>
     <t>CCCCC=C/C=C/CO</t>
   </si>
   <si>
-    <t>CC1C=CCC(C)(C)C1=O</t>
-  </si>
-  <si>
-    <t>CC1=CCCC(C)(C)C1=O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COc1cc(C(=O)O)ccc1C</t>
-  </si>
-  <si>
     <t>COc1cc(CO)ccc1C</t>
   </si>
   <si>
-    <t>O=C(O)Cc1cccnc1</t>
-  </si>
-  <si>
     <t>OCCc1cccnc1</t>
   </si>
   <si>
-    <t>CCC(C)CCCC(C)C(=O)O</t>
-  </si>
-  <si>
-    <t>CCC(C)CCCC(C)CO</t>
-  </si>
-  <si>
-    <t>CC1CCCC(C(=O)O)C1</t>
-  </si>
-  <si>
-    <t>CC1CCCC(CO)C1</t>
-  </si>
-  <si>
-    <t>CN1CCC(N)(C(=O)O)CC1</t>
-  </si>
-  <si>
-    <t>CN1CCC(N)(CO)CC1</t>
-  </si>
-  <si>
-    <t>COc1cccc(CCC(=O)O)c1</t>
-  </si>
-  <si>
-    <t>COc1cccc(CCCO)c1</t>
-  </si>
-  <si>
-    <t>Nc1ncccc1C(=O)O</t>
-  </si>
-  <si>
-    <t>Nc1ncccc1CO</t>
-  </si>
-  <si>
-    <t>Cc1ccc(N)c(C(=O)O)c1</t>
-  </si>
-  <si>
-    <t>Cc1ccc(N)c(CO)c1</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1OCC(=O)O</t>
-  </si>
-  <si>
-    <t>Cc1ccccc1OCCO</t>
-  </si>
-  <si>
-    <t>Cc1ccc(C(=O)O)c(C)c1</t>
-  </si>
-  <si>
-    <t>Cc1ccc(CO)c(C)c1</t>
-  </si>
-  <si>
-    <t>Nc1cc(CCC(=O)O)ccn1</t>
-  </si>
-  <si>
-    <t>Nc1cc(CCCO)ccn1</t>
-  </si>
-  <si>
     <t>COc1ncccc1CC(=O)O</t>
   </si>
   <si>
     <t>COc1ncccc1CCO</t>
   </si>
   <si>
-    <t>CSc1cccc(C(=O)O)c1</t>
-  </si>
-  <si>
-    <t>CSc1cccc(CO)c1</t>
-  </si>
-  <si>
-    <t>CC1(C(=O)O)CCCCC1</t>
-  </si>
-  <si>
-    <t>CC1(CO)CCCCC1</t>
-  </si>
-  <si>
-    <t>Cc1c(O)cccc1C(=O)O</t>
-  </si>
-  <si>
-    <t>Cc1c(O)cccc1CO</t>
-  </si>
-  <si>
-    <t>O=C(O)C1CCCCCC1</t>
-  </si>
-  <si>
     <t>OCC1CCCCCC1</t>
+  </si>
+  <si>
+    <t>OC(=O)c1cccnc1O</t>
+  </si>
+  <si>
+    <t>OC(=O)CC1CCOCC1</t>
+  </si>
+  <si>
+    <t>OC(=O)c1nccnc1O</t>
+  </si>
+  <si>
+    <t>Nc1ccc(nn1)C(=O)O</t>
+  </si>
+  <si>
+    <t>OC(=O)c1c(C)nsc1C</t>
+  </si>
+  <si>
+    <t>OC(=O)Cc1cccn1C</t>
+  </si>
+  <si>
+    <t>CC(=O)OCCCCOC(=O)C</t>
+  </si>
+  <si>
+    <t>O=CCCCOC(=O)C</t>
+  </si>
+  <si>
+    <t>OC(=O)C=Cc1ccc(cc1)N</t>
+  </si>
+  <si>
+    <t>COc1cccc(c1)C(=O)O</t>
+  </si>
+  <si>
+    <t>CC(C(=O)O)Oc1ccccc1</t>
+  </si>
+  <si>
+    <t>COc1ccc(cc1)CC(=O)O</t>
+  </si>
+  <si>
+    <t>OC(=O)c1ncn(c1C)C</t>
+  </si>
+  <si>
+    <t>COc1cc(ccc1C)C(=O)O</t>
+  </si>
+  <si>
+    <t>OC(=O)Cc1cccnc1</t>
+  </si>
+  <si>
+    <t>CCC(CCCC(C(=O)O)C)C</t>
+  </si>
+  <si>
+    <t>CC1CCCC(C1)C(=O)O</t>
+  </si>
+  <si>
+    <t>CN1CCC(CC1)(N)C(=O)O</t>
+  </si>
+  <si>
+    <t>COc1cccc(c1)CCC(=O)O</t>
+  </si>
+  <si>
+    <t>OC(=O)c1cccnc1N</t>
+  </si>
+  <si>
+    <t>Cc1ccc(c(c1)C(=O)O)N</t>
+  </si>
+  <si>
+    <t>OC(=O)COc1ccccc1C</t>
+  </si>
+  <si>
+    <t>Cc1ccc(c(c1)C)C(=O)O</t>
+  </si>
+  <si>
+    <t>OC(=O)CCc1ccnc(c1)N</t>
+  </si>
+  <si>
+    <t>CSc1cccc(c1)C(=O)O</t>
+  </si>
+  <si>
+    <t>OC(=O)C1(C)CCCCC1</t>
+  </si>
+  <si>
+    <t>OC(=O)c1cccc(c1C)O</t>
+  </si>
+  <si>
+    <t>OC(=O)C1CCCCCC1</t>
+  </si>
+  <si>
+    <t>CC1=CCCC(C1=O)(C)C</t>
+  </si>
+  <si>
+    <t>Nc1ccc(nn1)CO</t>
+  </si>
+  <si>
+    <t>OCc1c(C)nsc1C</t>
+  </si>
+  <si>
+    <t>OCCc1cccn1C</t>
+  </si>
+  <si>
+    <t>OCCCCOC(=O)C</t>
+  </si>
+  <si>
+    <t>OCC=Cc1ccc(cc1)N</t>
+  </si>
+  <si>
+    <t>OCc1cccc(c1)OC</t>
+  </si>
+  <si>
+    <t>OCC(Oc1ccccc1)C</t>
+  </si>
+  <si>
+    <t>OCCc1ccc(cc1)OC</t>
+  </si>
+  <si>
+    <t>OCc1ncn(c1C)C</t>
+  </si>
+  <si>
+    <t>CCC(CCCC(CO)C)C</t>
+  </si>
+  <si>
+    <t>OCC1CCCC(C1)C</t>
+  </si>
+  <si>
+    <t>OCC1(N)CCN(CC1)C</t>
+  </si>
+  <si>
+    <t>OCCCc1cccc(c1)OC</t>
+  </si>
+  <si>
+    <t>OCc1cccnc1N</t>
+  </si>
+  <si>
+    <t>OCc1cc(C)ccc1N</t>
+  </si>
+  <si>
+    <t>OCCOc1ccccc1C</t>
+  </si>
+  <si>
+    <t>OCc1ccc(cc1C)C</t>
+  </si>
+  <si>
+    <t>OCCCc1ccnc(c1)N</t>
+  </si>
+  <si>
+    <t>OCc1cccc(c1)SC</t>
+  </si>
+  <si>
+    <t>OCC1(C)CCCCC1</t>
+  </si>
+  <si>
+    <t>OCc1cccc(c1C)O</t>
+  </si>
+  <si>
+    <t>CC1C=CCC(C1=O)(C)C</t>
   </si>
 </sst>
 </file>
@@ -550,15 +549,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,98 +578,98 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,159 +677,159 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/database/classified_reaction_types/acid_alcohol/acid_alcohol_train.xlsx
+++ b/database/classified_reaction_types/acid_alcohol/acid_alcohol_train.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Reactants</t>
   </si>
@@ -87,24 +87,12 @@
     <t>OC(=O)Cc1cccn1C</t>
   </si>
   <si>
-    <t>CC(=O)OCCCCOC(=O)C</t>
-  </si>
-  <si>
-    <t>O=CCCCOC(=O)C</t>
-  </si>
-  <si>
     <t>OC(=O)C=Cc1ccc(cc1)N</t>
   </si>
   <si>
-    <t>COc1cccc(c1)C(=O)O</t>
-  </si>
-  <si>
     <t>CC(C(=O)O)Oc1ccccc1</t>
   </si>
   <si>
-    <t>COc1ccc(cc1)CC(=O)O</t>
-  </si>
-  <si>
     <t>OC(=O)c1ncn(c1C)C</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>OC(=O)C1CCCCCC1</t>
   </si>
   <si>
-    <t>CC1=CCCC(C1=O)(C)C</t>
-  </si>
-  <si>
     <t>Nc1ccc(nn1)CO</t>
   </si>
   <si>
@@ -165,21 +150,12 @@
     <t>OCCc1cccn1C</t>
   </si>
   <si>
-    <t>OCCCCOC(=O)C</t>
-  </si>
-  <si>
     <t>OCC=Cc1ccc(cc1)N</t>
   </si>
   <si>
-    <t>OCc1cccc(c1)OC</t>
-  </si>
-  <si>
     <t>OCC(Oc1ccccc1)C</t>
   </si>
   <si>
-    <t>OCCc1ccc(cc1)OC</t>
-  </si>
-  <si>
     <t>OCc1ncn(c1C)C</t>
   </si>
   <si>
@@ -217,9 +193,6 @@
   </si>
   <si>
     <t>OCc1cccc(c1C)O</t>
-  </si>
-  <si>
-    <t>CC1C=CCC(C1=O)(C)C</t>
   </si>
 </sst>
 </file>
@@ -547,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -560,7 +533,7 @@
     <col min="3" max="4" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,55 +541,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -624,76 +627,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +712,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,7 +720,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +728,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -733,7 +736,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +744,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -749,91 +752,48 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>